--- a/RedmineSubstitute.xlsx
+++ b/RedmineSubstitute.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Desktop\Cours Conception-Développement\Fil Rouge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\BabaRh_Autres ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F93D8-01D0-495C-B0B8-BB3EBE339F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EC720C0C-E686-414A-9656-17FED84B05D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="RedmineSubstitute" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Action</t>
   </si>
@@ -103,12 +102,24 @@
   </si>
   <si>
     <t>Dev</t>
+  </si>
+  <si>
+    <t>"Edit_AccessLayer/Models/Agent.cs:NotMapped_psw"</t>
+  </si>
+  <si>
+    <t>"Add_AccessLayer/Interfaces"</t>
+  </si>
+  <si>
+    <t>"Add_AccessLayers"</t>
+  </si>
+  <si>
+    <t>"Add_AccessLayer/Models"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -242,11 +253,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -616,18 +656,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A902EEF-0C6C-4DAD-B94B-D371633E6A11}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
@@ -703,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E24" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
+        <f t="shared" ref="E3:E27" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
         <v>2.0.1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -814,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,14 +1003,18 @@
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>5.0.0</v>
+        <v>5.0.1</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -985,116 +1029,146 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>6.0.0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>7.0.0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="E14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>5.0.2</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10">
         <v>19</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f t="shared" ref="E15" si="1">IF(ISBLANK(D15),A15&amp;".0.0",A15&amp;"."&amp;D15)</f>
+        <v>5.0.3</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="10">
         <v>19</v>
       </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>8.0.0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="14">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f t="shared" ref="E16" si="2">IF(ISBLANK(D16),A16&amp;".0.0",A16&amp;"."&amp;D16)</f>
+        <v>5.0.4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="10">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>9.0.0</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <v>6.0.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>10.0.0</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+        <v>7.0.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.0.0</v>
+        <v>8.0.0</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1103,14 +1177,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12.0.0</v>
+        <v>9.0.0</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1119,14 +1193,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>13.0.0</v>
+        <v>10.0.0</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1135,14 +1209,14 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>14.0.0</v>
+        <v>11.0.0</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1151,62 +1225,126 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.0.0</v>
+        <v>12.0.0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>13.0.0</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>14.0.0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.0.0</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>16</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>16.0.0</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:H7 F12:H1048576 I1">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H1048576">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:H8">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:H10">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:H14">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1214,11 +1352,19 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:H10">
+  <conditionalFormatting sqref="F15:H15">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:H16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RedmineSubstitute.xlsx
+++ b/RedmineSubstitute.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>Action</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Entity Framework Code First</t>
-  </si>
-  <si>
-    <t>Migration d'origine</t>
   </si>
   <si>
     <t>Versioning</t>
@@ -114,6 +111,15 @@
   </si>
   <si>
     <t>"Add_AccessLayer/Models"</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>WCF</t>
+  </si>
+  <si>
+    <t>"Add_ModulesService_AddQuestionsService"</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -262,11 +268,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -659,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -687,22 +709,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,7 +762,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="str">
         <f t="shared" ref="E3:E27" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
@@ -766,7 +788,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -792,7 +814,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -818,7 +840,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -844,7 +866,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -868,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -900,7 +922,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -925,10 +947,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -954,7 +976,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1007,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1035,10 +1057,10 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1061,10 +1083,10 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" ref="E15" si="1">IF(ISBLANK(D15),A15&amp;".0.0",A15&amp;"."&amp;D15)</f>
@@ -1087,10 +1109,10 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="16" t="str">
         <f t="shared" ref="E16" si="2">IF(ISBLANK(D16),A16&amp;".0.0",A16&amp;"."&amp;D16)</f>
@@ -1112,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1138,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1159,20 +1181,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>8.0.0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>8.0.1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,7 +1338,15 @@
       <c r="I27" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H1048576">
+  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H18 F20:H1048576">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:H8">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1312,23 +1354,23 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H8">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Aurélie"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"Benjamin"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:H10">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1336,15 +1378,15 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:H10">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="F14:H14">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H14">
+  <conditionalFormatting sqref="F15:H15">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1352,7 +1394,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:H15">
+  <conditionalFormatting sqref="F16:H16">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1360,7 +1402,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:H16">
+  <conditionalFormatting sqref="F19:H19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>

--- a/RedmineSubstitute.xlsx
+++ b/RedmineSubstitute.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Action</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>"Add_ModulesService_AddQuestionsService"</t>
+  </si>
+  <si>
+    <t>Création logo</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Création projet</t>
   </si>
 </sst>
 </file>
@@ -278,7 +287,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -679,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E27" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
+        <f t="shared" ref="E3:E28" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
         <v>2.0.1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1213,60 +1252,79 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>9.0.0</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>10.0.0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+        <v>10.0.1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="10">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11.0.0</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12.0.0</v>
+        <v>11.0.0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1275,14 +1333,14 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>13.0.0</v>
+        <v>12.0.0</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1291,14 +1349,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>14.0.0</v>
+        <v>13.0.0</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1307,38 +1365,78 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.0.0</v>
+        <v>14.0.0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.0.0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>16</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>16.0.0</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H18 F20:H1048576">
+  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H18 F23:H1048576 F20 H20">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:H8">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"Benjamin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"Aurélie"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:H9">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1346,7 +1444,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H8">
+  <conditionalFormatting sqref="F10:H10">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1354,31 +1452,31 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="F14:H14">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:H9">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="F15:H15">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:H10">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="F16:H16">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H14">
+  <conditionalFormatting sqref="F19:H19">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1386,7 +1484,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:H15">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1394,7 +1492,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:H16">
+  <conditionalFormatting sqref="F21:F22 H21:H22">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1402,7 +1500,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:H19">
+  <conditionalFormatting sqref="G21:G22">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>

--- a/RedmineSubstitute.xlsx
+++ b/RedmineSubstitute.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Action</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Création projet</t>
+  </si>
+  <si>
+    <t>"Add_ReponsesService_AddAgentsService"</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,10 +281,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E28" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
+        <f t="shared" ref="E3:E29" si="0">IF(ISBLANK(D3),A3&amp;".0.0",A3&amp;"."&amp;D3)</f>
         <v>2.0.1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1224,10 +1230,10 @@
       <c r="A19" s="14">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1248,99 +1254,109 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>8.0.2</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>22</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6" t="str">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>9.0.0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="10">
         <v>20</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10.0.1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10">
         <v>21</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="5"/>
-    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11.0.0</v>
-      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12.0.0</v>
+        <v>11.0.0</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1349,14 +1365,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>13.0.0</v>
+        <v>12.0.0</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1365,14 +1381,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>14.0.0</v>
+        <v>13.0.0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1381,38 +1397,57 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.0.0</v>
+        <v>14.0.0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.0.0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>16</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>16.0.0</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H18 F23:H1048576 F20 H20">
+  <mergeCells count="1">
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F1:H7 F12:H13 I1 F17:H18 F24:H1048576 F21 H21">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1476,7 +1511,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:H19">
+  <conditionalFormatting sqref="F19:H20">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1484,7 +1519,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1492,7 +1527,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 H21:H22">
+  <conditionalFormatting sqref="F22:F23 H22:H23">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
@@ -1500,7 +1535,7 @@
       <formula>"Aurélie"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
+  <conditionalFormatting sqref="G22:G23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Benjamin"</formula>
     </cfRule>
